--- a/data/S&P500/average_betas.xlsx
+++ b/data/S&P500/average_betas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kpeet\Documents\Jesse_thesis\Thesis\THGNN\data\S&amp;P500\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D97F4B6-4E75-4BF3-8BD9-18B87221D28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC75FB0-E6BF-4319-92BB-0FC119B36FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4605" yWindow="1905" windowWidth="21600" windowHeight="11295" xr2:uid="{AF897913-D99A-4242-A66D-1F409C352E55}"/>
+    <workbookView xWindow="3450" yWindow="6090" windowWidth="15735" windowHeight="10800" xr2:uid="{AF897913-D99A-4242-A66D-1F409C352E55}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="13">
   <si>
     <t>beta positief</t>
   </si>
@@ -81,6 +81,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -110,8 +113,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -446,19 +450,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D451AD02-EBA0-478A-A891-6DE7E9ABFDC9}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="4" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="10" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -468,8 +474,17 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -482,13 +497,46 @@
       <c r="D2">
         <v>1.9E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>0.98870000000000002</v>
+      </c>
+      <c r="I2">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="J2">
+        <v>5.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0.23369999999999999</v>
+      </c>
+      <c r="C3">
+        <v>0.3427</v>
+      </c>
+      <c r="D3">
+        <v>0.42349999999999999</v>
+      </c>
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>0.62119999999999997</v>
+      </c>
+      <c r="I3">
+        <v>0.22750000000000001</v>
+      </c>
+      <c r="J3">
+        <v>0.15110000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -501,13 +549,46 @@
       <c r="D4">
         <v>2.3300000000000001E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>0.51319999999999999</v>
+      </c>
+      <c r="I4">
+        <v>1.09E-2</v>
+      </c>
+      <c r="J4">
+        <v>0.4758</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0.5524</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5.4550000000000001E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>0.58840000000000003</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.25819999999999999</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.1532</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -520,22 +601,46 @@
       <c r="D6">
         <v>0.23469999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>0.65810000000000002</v>
+      </c>
+      <c r="I6">
+        <v>1.12E-2</v>
+      </c>
+      <c r="J6">
+        <v>0.33050000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7">
         <v>0.40510000000000002</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>0.13100000000000001</v>
       </c>
       <c r="D7">
         <v>0.46379999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7">
+        <v>0.52310000000000001</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.20019999999999999</v>
+      </c>
+      <c r="J7">
+        <v>0.27650000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -548,22 +653,46 @@
       <c r="D8">
         <v>3.61E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8">
+        <v>0.64080000000000004</v>
+      </c>
+      <c r="I8">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="J8">
+        <v>0.19270000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
       <c r="B9">
         <v>0.54049999999999998</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>0.08</v>
       </c>
       <c r="D9">
         <v>0.37930000000000003</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>0.5595</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0.1943</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0.246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -576,8 +705,20 @@
       <c r="D10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10">
+        <v>0.5202</v>
+      </c>
+      <c r="I10">
+        <v>9.3799999999999994E-2</v>
+      </c>
+      <c r="J10">
+        <v>0.38590000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -589,6 +730,320 @@
       </c>
       <c r="D11">
         <v>6.4899999999999999E-2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11">
+        <v>0.4108</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.1479</v>
+      </c>
+      <c r="J11">
+        <v>0.44109999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="5.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>0.23369999999999999</v>
+      </c>
+      <c r="C14">
+        <v>0.3427</v>
+      </c>
+      <c r="D14">
+        <v>0.42349999999999999</v>
+      </c>
+      <c r="G14" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>0.62119999999999997</v>
+      </c>
+      <c r="I14">
+        <v>0.22750000000000001</v>
+      </c>
+      <c r="J14">
+        <v>0.15110000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>0.5524</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5.4550000000000001E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="G15" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>0.58840000000000003</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.25819999999999999</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0.1532</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16">
+        <v>0.40510000000000002</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="D16">
+        <v>0.46379999999999999</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16">
+        <v>0.52310000000000001</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.20019999999999999</v>
+      </c>
+      <c r="J16">
+        <v>0.27650000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>0.54049999999999998</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="D17">
+        <v>0.37930000000000003</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>0.5595</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.1943</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18">
+        <v>0.56279999999999997</v>
+      </c>
+      <c r="C18">
+        <v>0.37219999999999998</v>
+      </c>
+      <c r="D18">
+        <v>6.4899999999999999E-2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18">
+        <v>0.4108</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.1479</v>
+      </c>
+      <c r="J18">
+        <v>0.44109999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" t="s">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>0.24679999999999999</v>
+      </c>
+      <c r="C21">
+        <v>0.75119999999999998</v>
+      </c>
+      <c r="D21">
+        <v>1.9E-3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>0.98870000000000002</v>
+      </c>
+      <c r="I21">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="J21">
+        <v>5.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>0.52710000000000001</v>
+      </c>
+      <c r="C22">
+        <v>0.44950000000000001</v>
+      </c>
+      <c r="D22">
+        <v>2.3300000000000001E-2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>0.51319999999999999</v>
+      </c>
+      <c r="I22">
+        <v>1.09E-2</v>
+      </c>
+      <c r="J22">
+        <v>0.4758</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>0.70489999999999997</v>
+      </c>
+      <c r="C23">
+        <v>6.0199999999999997E-2</v>
+      </c>
+      <c r="D23">
+        <v>0.23469999999999999</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23">
+        <v>0.65810000000000002</v>
+      </c>
+      <c r="I23">
+        <v>1.12E-2</v>
+      </c>
+      <c r="J23">
+        <v>0.33050000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24">
+        <v>0.96279999999999999</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>3.61E-2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24">
+        <v>0.64080000000000004</v>
+      </c>
+      <c r="I24">
+        <v>0.16639999999999999</v>
+      </c>
+      <c r="J24">
+        <v>0.19270000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25">
+        <v>0.60670000000000002</v>
+      </c>
+      <c r="C25">
+        <v>0.39319999999999999</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25">
+        <v>0.5202</v>
+      </c>
+      <c r="I25">
+        <v>9.3799999999999994E-2</v>
+      </c>
+      <c r="J25">
+        <v>0.38590000000000002</v>
       </c>
     </row>
   </sheetData>
